--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>618475.19989375</v>
+        <v>631032.6687268706</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18157355.41581893</v>
+        <v>16659530.99074006</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2113478.654365223</v>
+        <v>606553.2040797167</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7189539.429758529</v>
+        <v>7760980.247796185</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>219.3006409323498</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>387.2118024423824</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>27.9735834668218</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -877,13 +879,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>146.3752975271669</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,13 +901,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>102.7176563887156</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>140.129689567653</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1117,10 +1119,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>81.01098805494614</v>
       </c>
       <c r="Y7" t="n">
-        <v>102.2146311366284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,10 +1141,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>129.475840043234</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>281.6665367566044</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1300,10 +1302,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>14.14416275345401</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022953</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1367,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>104.6905595884843</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>136.4603253870451</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -1388,7 +1390,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1546,7 +1548,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1584,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>67.42894579208335</v>
+        <v>155.2022955251545</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1610,13 +1612,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>92.21956428897897</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>182.5224157514565</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1780,7 +1782,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>155.2022955251545</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1859,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2014,10 +2016,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>155.2022955251541</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2135,7 +2137,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2287,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U22" t="n">
-        <v>153.2006427344284</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2488,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>22.2853439284767</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830552</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2725,10 +2727,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>24.34318456170566</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>101.7706336613758</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2965,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3010,10 +3012,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>125.1716544454844</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3247,10 +3249,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>146.3752975271662</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3433,10 +3435,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>14.14416275345333</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022602</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3670,16 +3672,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>14.14416275345451</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3718,7 +3720,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>54.66258501924847</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3746,19 +3748,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>154.8662058272865</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>145.83876749105</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3904,19 +3906,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>119.8634463900541</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>3.139541480023404</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3989,10 +3991,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>324.9434442191954</v>
       </c>
       <c r="H44" t="n">
-        <v>121.1570449132234</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4028,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4043,7 +4045,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4135,7 +4137,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>10.04027365719982</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4147,7 +4149,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>24.34318456170507</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2191.836957184118</v>
+        <v>532.1876844265735</v>
       </c>
       <c r="C2" t="n">
-        <v>1753.694484367541</v>
+        <v>498.0856156504008</v>
       </c>
       <c r="D2" t="n">
-        <v>1317.784699541985</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E2" t="n">
-        <v>884.0099547002803</v>
+        <v>77.22824207901678</v>
       </c>
       <c r="F2" t="n">
-        <v>456.1425251094881</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J2" t="n">
-        <v>489.9993811856698</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K2" t="n">
-        <v>1167.464966128475</v>
+        <v>687.5406628060929</v>
       </c>
       <c r="L2" t="n">
-        <v>1167.464966128475</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="M2" t="n">
-        <v>1167.464966128475</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="N2" t="n">
-        <v>1167.464966128475</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="O2" t="n">
-        <v>1344.116250983141</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.581835925947</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q2" t="n">
-        <v>2568.080621884541</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2653.582812821435</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2433.515585694473</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="U2" t="n">
-        <v>2433.515585694473</v>
+        <v>2190.771296621484</v>
       </c>
       <c r="V2" t="n">
-        <v>2433.515585694473</v>
+        <v>2190.771296621484</v>
       </c>
       <c r="W2" t="n">
-        <v>2432.700535145911</v>
+        <v>1785.915842032517</v>
       </c>
       <c r="X2" t="n">
-        <v>2417.598475765626</v>
+        <v>1366.773378611828</v>
       </c>
       <c r="Y2" t="n">
-        <v>2413.352756105683</v>
+        <v>958.4872549114813</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I3" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J3" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K3" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L3" t="n">
-        <v>54.74469373275195</v>
+        <v>394.9608689238807</v>
       </c>
       <c r="M3" t="n">
-        <v>54.74469373275195</v>
+        <v>394.9608689238807</v>
       </c>
       <c r="N3" t="n">
-        <v>54.74469373275195</v>
+        <v>394.9608689238807</v>
       </c>
       <c r="O3" t="n">
-        <v>382.60715354234</v>
+        <v>1055.800923465659</v>
       </c>
       <c r="P3" t="n">
-        <v>1060.072738485145</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="Q3" t="n">
-        <v>1600.811677117221</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R3" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1133.802854344633</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>961.2411428278582</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>795.3631500293809</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>625.6051462801182</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>448.8980922418745</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>283.3068172677021</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>143.4046429580766</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2671.404303635552</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2512.162934933549</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T4" t="n">
-        <v>2266.283488512004</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U4" t="n">
-        <v>1987.850487765109</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1700.894979635539</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W4" t="n">
-        <v>1700.894979635539</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1553.041143749512</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y4" t="n">
-        <v>1325.62147306362</v>
+        <v>1160.715522056492</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1790.855915180241</v>
+        <v>1052.900668210748</v>
       </c>
       <c r="C5" t="n">
-        <v>1352.713442363665</v>
+        <v>614.7581953941717</v>
       </c>
       <c r="D5" t="n">
-        <v>916.8036575381091</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E5" t="n">
-        <v>483.0289126964042</v>
+        <v>77.22824207901678</v>
       </c>
       <c r="F5" t="n">
-        <v>55.16148310561195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G5" t="n">
-        <v>55.16148310561195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H5" t="n">
-        <v>55.16148310561195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K5" t="n">
-        <v>54.74469373275195</v>
+        <v>714.241271070407</v>
       </c>
       <c r="L5" t="n">
-        <v>732.2102786755574</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="M5" t="n">
-        <v>1409.675863618363</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="N5" t="n">
-        <v>2087.141448561168</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="O5" t="n">
-        <v>2087.141448561168</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P5" t="n">
-        <v>2190.735900679003</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>2374.617736571424</v>
+        <v>2307.443876365255</v>
       </c>
       <c r="W5" t="n">
-        <v>2373.802686022862</v>
+        <v>2306.628825816692</v>
       </c>
       <c r="X5" t="n">
-        <v>2358.700626642576</v>
+        <v>1887.486362396003</v>
       </c>
       <c r="Y5" t="n">
-        <v>2217.155485665149</v>
+        <v>1479.200238695656</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I6" t="n">
-        <v>80.80836689320955</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J6" t="n">
-        <v>405.3666918594219</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K6" t="n">
-        <v>1060.072738485145</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L6" t="n">
-        <v>1060.072738485145</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M6" t="n">
-        <v>1060.072738485145</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N6" t="n">
-        <v>1060.072738485145</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="O6" t="n">
-        <v>1060.072738485145</v>
+        <v>515.0619848335834</v>
       </c>
       <c r="P6" t="n">
-        <v>1060.072738485145</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="Q6" t="n">
-        <v>1600.811677117221</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R6" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1133.802854344633</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>961.2411428278582</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>795.3631500293809</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>625.6051462801182</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>448.8980922418745</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>283.3068172677021</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>143.4046429580766</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J7" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2671.404303635552</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2512.162934933549</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2266.283488512004</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1987.850487765109</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1700.894979635539</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1428.868575221831</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1428.868575221831</v>
+        <v>1324.277995859497</v>
       </c>
       <c r="Y7" t="n">
-        <v>1325.62147306362</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1790.439125807381</v>
+        <v>981.0148405224497</v>
       </c>
       <c r="C8" t="n">
-        <v>1352.296652990805</v>
+        <v>542.8723677058731</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3868681652491</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>482.6121233235442</v>
+        <v>77.22824207901678</v>
       </c>
       <c r="F8" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G8" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H8" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I8" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J8" t="n">
-        <v>489.9993811856698</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K8" t="n">
-        <v>1167.464966128475</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="L8" t="n">
-        <v>1167.464966128475</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="M8" t="n">
-        <v>1167.464966128475</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="N8" t="n">
-        <v>1167.464966128475</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="O8" t="n">
-        <v>1844.930551071281</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.581835925947</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.080621884541</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2737.234686637598</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2517.167459510636</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U8" t="n">
-        <v>2517.167459510636</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="V8" t="n">
-        <v>2517.167459510636</v>
+        <v>2235.558048676956</v>
       </c>
       <c r="W8" t="n">
-        <v>2516.352408962074</v>
+        <v>1830.70259408799</v>
       </c>
       <c r="X8" t="n">
-        <v>2501.250349581789</v>
+        <v>1815.600534707704</v>
       </c>
       <c r="Y8" t="n">
-        <v>2216.738696292289</v>
+        <v>1407.314411007358</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I9" t="n">
-        <v>54.74469373275195</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>54.74469373275195</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K9" t="n">
-        <v>732.2102786755574</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="L9" t="n">
-        <v>732.2102786755574</v>
+        <v>277.7880908295409</v>
       </c>
       <c r="M9" t="n">
-        <v>732.2102786755574</v>
+        <v>938.6281453713193</v>
       </c>
       <c r="N9" t="n">
-        <v>1409.675863618363</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="O9" t="n">
-        <v>1409.675863618363</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="P9" t="n">
-        <v>1409.675863618363</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q9" t="n">
-        <v>1600.811677117221</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>742.8207098557364</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>570.2589983389613</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>404.381005540484</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>234.6230017912213</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>220.3359687069243</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G10" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H10" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I10" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J10" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2649.986482340924</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2490.74511363892</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2244.865667217376</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1966.432666470481</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1679.477158340911</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1407.450753927203</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1162.058999260615</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.6393285747235</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>883.1113921784387</v>
+        <v>2188.014873871654</v>
       </c>
       <c r="C11" t="n">
-        <v>883.1113921784387</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D11" t="n">
-        <v>883.1113921784387</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E11" t="n">
-        <v>883.1113921784387</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F11" t="n">
-        <v>745.2726796662719</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>343.8748482895357</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>54.74469373275195</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I11" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J11" t="n">
-        <v>158.3391458505872</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>835.8047307933927</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>835.8047307933927</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M11" t="n">
-        <v>835.8047307933927</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N11" t="n">
-        <v>835.8047307933927</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O11" t="n">
-        <v>1513.270315736198</v>
+        <v>3418.614711553115</v>
       </c>
       <c r="P11" t="n">
-        <v>2190.735900679003</v>
+        <v>4246.924586386512</v>
       </c>
       <c r="Q11" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R11" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S11" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T11" t="n">
-        <v>2737.234686637598</v>
+        <v>4468.437738815721</v>
       </c>
       <c r="U11" t="n">
-        <v>2478.012383954615</v>
+        <v>4209.215436132738</v>
       </c>
       <c r="V11" t="n">
-        <v>2115.395433888441</v>
+        <v>3846.598486066564</v>
       </c>
       <c r="W11" t="n">
-        <v>1710.539979299475</v>
+        <v>3441.743031477597</v>
       </c>
       <c r="X11" t="n">
-        <v>1291.397515878785</v>
+        <v>3022.600568056908</v>
       </c>
       <c r="Y11" t="n">
-        <v>883.1113921784387</v>
+        <v>2614.314444356562</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>560.9164387240447</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C12" t="n">
-        <v>454.459977560687</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D12" t="n">
-        <v>359.3696887072403</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>265.249274034194</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>181.8654356503556</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>96.48034591653948</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I12" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J12" t="n">
-        <v>379.3030186989643</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K12" t="n">
-        <v>1056.76860364177</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L12" t="n">
-        <v>1056.76860364177</v>
+        <v>937.2866943184644</v>
       </c>
       <c r="M12" t="n">
-        <v>1056.76860364177</v>
+        <v>937.2866943184644</v>
       </c>
       <c r="N12" t="n">
-        <v>1056.76860364177</v>
+        <v>937.2866943184644</v>
       </c>
       <c r="O12" t="n">
-        <v>1056.76860364177</v>
+        <v>937.2866943184644</v>
       </c>
       <c r="P12" t="n">
-        <v>1177.245516579485</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="Q12" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="R12" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S12" t="n">
-        <v>1654.529017659944</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T12" t="n">
-        <v>1524.350373990545</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.013826990514</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V12" t="n">
-        <v>1148.896309052513</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>963.5735547857071</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>808.7061190245871</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.2203398038079</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1133.802854344633</v>
+        <v>1084.16831070541</v>
       </c>
       <c r="C13" t="n">
-        <v>961.2411428278582</v>
+        <v>911.6065991886352</v>
       </c>
       <c r="D13" t="n">
-        <v>795.3631500293809</v>
+        <v>745.7286063901579</v>
       </c>
       <c r="E13" t="n">
-        <v>625.6051462801182</v>
+        <v>575.9706026408952</v>
       </c>
       <c r="F13" t="n">
-        <v>448.8980922418745</v>
+        <v>399.2635486026514</v>
       </c>
       <c r="G13" t="n">
-        <v>283.3068172677021</v>
+        <v>233.6722736284791</v>
       </c>
       <c r="H13" t="n">
-        <v>143.4046429580766</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I13" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J13" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>416.0828334685774</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>834.2927152365385</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T13" t="n">
-        <v>2425.524857214007</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U13" t="n">
-        <v>2357.414810959378</v>
+        <v>2307.780267320155</v>
       </c>
       <c r="V13" t="n">
-        <v>2070.459302829808</v>
+        <v>2020.824759190585</v>
       </c>
       <c r="W13" t="n">
-        <v>1798.4328984161</v>
+        <v>1748.798354776877</v>
       </c>
       <c r="X13" t="n">
-        <v>1553.041143749512</v>
+        <v>1503.406600110289</v>
       </c>
       <c r="Y13" t="n">
-        <v>1325.62147306362</v>
+        <v>1275.986929424397</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>894.2849979260648</v>
+        <v>2231.279152143079</v>
       </c>
       <c r="C14" t="n">
-        <v>456.1425251094881</v>
+        <v>1793.136679326502</v>
       </c>
       <c r="D14" t="n">
-        <v>456.1425251094881</v>
+        <v>1357.226894500947</v>
       </c>
       <c r="E14" t="n">
-        <v>456.1425251094881</v>
+        <v>923.452149659242</v>
       </c>
       <c r="F14" t="n">
-        <v>456.1425251094881</v>
+        <v>495.5847200684498</v>
       </c>
       <c r="G14" t="n">
-        <v>54.74469373275195</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="H14" t="n">
-        <v>54.74469373275195</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I14" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J14" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K14" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L14" t="n">
-        <v>732.2102786755574</v>
+        <v>1168.830065571713</v>
       </c>
       <c r="M14" t="n">
-        <v>1409.675863618363</v>
+        <v>2325.877900782264</v>
       </c>
       <c r="N14" t="n">
-        <v>2087.141448561168</v>
+        <v>3451.608884218711</v>
       </c>
       <c r="O14" t="n">
-        <v>2737.234686637598</v>
+        <v>3451.608884218711</v>
       </c>
       <c r="P14" t="n">
-        <v>2737.234686637598</v>
+        <v>4279.918759052108</v>
       </c>
       <c r="Q14" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R14" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S14" t="n">
-        <v>2737.234686637598</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T14" t="n">
-        <v>2737.234686637598</v>
+        <v>4511.702017087146</v>
       </c>
       <c r="U14" t="n">
-        <v>2737.234686637598</v>
+        <v>4252.479714404163</v>
       </c>
       <c r="V14" t="n">
-        <v>2552.868610120975</v>
+        <v>3889.86276433799</v>
       </c>
       <c r="W14" t="n">
-        <v>2148.013155532009</v>
+        <v>3485.007309749023</v>
       </c>
       <c r="X14" t="n">
-        <v>1728.870692111319</v>
+        <v>3065.864846328333</v>
       </c>
       <c r="Y14" t="n">
-        <v>1320.584568410973</v>
+        <v>2657.578722627987</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>560.9164387240447</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C15" t="n">
-        <v>454.459977560687</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D15" t="n">
-        <v>359.3696887072403</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>265.249274034194</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>181.8654356503556</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>96.48034591653948</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I15" t="n">
-        <v>80.80836689320955</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J15" t="n">
-        <v>245.8805072316101</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K15" t="n">
-        <v>245.8805072316101</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L15" t="n">
-        <v>245.8805072316101</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="M15" t="n">
-        <v>923.3460921744155</v>
+        <v>1254.175078389668</v>
       </c>
       <c r="N15" t="n">
-        <v>1600.811677117221</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="O15" t="n">
-        <v>1600.811677117221</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="P15" t="n">
-        <v>1600.811677117221</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="Q15" t="n">
-        <v>1600.811677117221</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="R15" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S15" t="n">
-        <v>1654.529017659944</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T15" t="n">
-        <v>1524.350373990545</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.013826990514</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V15" t="n">
-        <v>1148.896309052513</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>963.5735547857071</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>808.7061190245871</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.2203398038079</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1045.142905119309</v>
+        <v>944.2661363957848</v>
       </c>
       <c r="C16" t="n">
-        <v>872.5811936025335</v>
+        <v>771.7044248790097</v>
       </c>
       <c r="D16" t="n">
-        <v>706.7032008040562</v>
+        <v>605.8264320805324</v>
       </c>
       <c r="E16" t="n">
-        <v>536.9451970547935</v>
+        <v>436.0684283312697</v>
       </c>
       <c r="F16" t="n">
-        <v>360.2381430165498</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G16" t="n">
-        <v>194.6468680423774</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H16" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I16" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J16" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>416.0828334685774</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>834.2927152365385</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2671.404303635552</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T16" t="n">
-        <v>2425.524857214007</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U16" t="n">
-        <v>2268.754861734053</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V16" t="n">
-        <v>1981.799353604483</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W16" t="n">
-        <v>1709.772949190775</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X16" t="n">
-        <v>1464.381194524188</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y16" t="n">
-        <v>1236.961523838296</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5540,25 +5542,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5597,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>828.6046571760505</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>828.6046571760505</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>828.6046571760505</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>828.6046571760505</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>828.6046571760505</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.659051657336</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C19" t="n">
-        <v>920.0973401405612</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D19" t="n">
-        <v>754.2193473420839</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E19" t="n">
-        <v>584.4613435928212</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2316.271008272081</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>2029.315500142511</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1757.289095728803</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1511.897341062215</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1284.477670376323</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="20">
@@ -5759,28 +5761,28 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
         <v>4550.100609912873</v>
@@ -5789,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5935,10 +5937,10 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2559.679081471576</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U22" t="n">
         <v>2404.930957497405</v>
@@ -5975,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C24" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D24" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E24" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F24" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G24" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H24" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R24" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S24" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T24" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U24" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V24" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W24" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X24" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y24" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>927.0677766831641</v>
+        <v>3575.440564248063</v>
       </c>
       <c r="C25" t="n">
-        <v>754.506065166389</v>
+        <v>3402.878852731288</v>
       </c>
       <c r="D25" t="n">
-        <v>588.6280723679117</v>
+        <v>3237.000859932811</v>
       </c>
       <c r="E25" t="n">
-        <v>418.8700686186489</v>
+        <v>3067.242856183548</v>
       </c>
       <c r="F25" t="n">
-        <v>242.1630145804051</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K25" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M25" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O25" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q25" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="S25" t="n">
-        <v>2674.992180466348</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="T25" t="n">
-        <v>2429.112734044803</v>
+        <v>5077.485521609701</v>
       </c>
       <c r="U25" t="n">
-        <v>2150.679733297909</v>
+        <v>4799.052520862807</v>
       </c>
       <c r="V25" t="n">
-        <v>1863.724225168339</v>
+        <v>4512.097012733238</v>
       </c>
       <c r="W25" t="n">
-        <v>1591.697820754631</v>
+        <v>4240.070608319529</v>
       </c>
       <c r="X25" t="n">
-        <v>1346.306066088043</v>
+        <v>3994.678853652942</v>
       </c>
       <c r="Y25" t="n">
-        <v>1118.886395402151</v>
+        <v>3767.25918296705</v>
       </c>
     </row>
     <row r="26">
@@ -6212,64 +6214,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>605.8694973157595</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1680.929463568619</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2837.97729877917</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>3963.708282215617</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="27">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3205.876241053795</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C28" t="n">
-        <v>3033.31452953702</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D28" t="n">
-        <v>2867.436536738543</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E28" t="n">
-        <v>2697.67853298928</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F28" t="n">
-        <v>2520.971478951036</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
-        <v>2496.382403636182</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>4953.800644836978</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T28" t="n">
-        <v>4707.921198415434</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U28" t="n">
-        <v>4429.488197668539</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V28" t="n">
-        <v>4142.53268953897</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W28" t="n">
-        <v>3870.506285125261</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X28" t="n">
-        <v>3625.114530458674</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y28" t="n">
-        <v>3397.694859772782</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6451,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6500,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6737,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="33">
@@ -6780,19 +6782,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6883,19 +6885,19 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173566</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W34" t="n">
-        <v>1748.411126173566</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X34" t="n">
         <v>1600.55729028754</v>
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6944,16 +6946,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423627</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q35" t="n">
         <v>4943.887948785924</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7081,7 +7083,7 @@
         <v>282.1391483292483</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G37" t="n">
         <v>102.2608402707796</v>
@@ -7160,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7175,25 +7177,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688169</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321676</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532227</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7211,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3184.458419759167</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>3011.896708242392</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>2846.018715443915</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>2676.260711694652</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>2661.973678610354</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>2496.382403636182</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>5091.624192244353</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>4932.38282354235</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T40" t="n">
-        <v>4686.503377120805</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U40" t="n">
-        <v>4408.070376373911</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V40" t="n">
-        <v>4121.114868244342</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W40" t="n">
-        <v>3849.088463830633</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X40" t="n">
-        <v>3603.696709164046</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y40" t="n">
-        <v>3376.277038478154</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1487.042083061133</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C41" t="n">
-        <v>1048.899610244557</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D41" t="n">
-        <v>612.9898254190011</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E41" t="n">
-        <v>612.9898254190011</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F41" t="n">
-        <v>612.9898254190011</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G41" t="n">
-        <v>211.591994042265</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H41" t="n">
-        <v>55.16148310561195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I41" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J41" t="n">
-        <v>54.74469373275195</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>54.74469373275195</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>732.2102786755574</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="M41" t="n">
-        <v>1409.675863618363</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="N41" t="n">
-        <v>2087.141448561168</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O41" t="n">
-        <v>2737.234686637598</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P41" t="n">
-        <v>2737.234686637598</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q41" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R41" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S41" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T41" t="n">
-        <v>2517.167459510636</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="U41" t="n">
-        <v>2257.945156827654</v>
+        <v>4541.193079588086</v>
       </c>
       <c r="V41" t="n">
-        <v>1895.32820676148</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="W41" t="n">
-        <v>1895.32820676148</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X41" t="n">
-        <v>1895.32820676148</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y41" t="n">
-        <v>1487.042083061133</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>560.9164387240447</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C42" t="n">
-        <v>454.459977560687</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D42" t="n">
-        <v>359.3696887072403</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>265.249274034194</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>181.8654356503556</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>96.48034591653948</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I42" t="n">
-        <v>80.80836689320955</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J42" t="n">
-        <v>405.3666918594219</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K42" t="n">
-        <v>1060.072738485145</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L42" t="n">
-        <v>1060.072738485145</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="M42" t="n">
-        <v>1060.072738485145</v>
+        <v>596.6048817268487</v>
       </c>
       <c r="N42" t="n">
-        <v>1060.072738485145</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="O42" t="n">
-        <v>1060.072738485145</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="P42" t="n">
-        <v>1060.072738485145</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="Q42" t="n">
-        <v>1600.811677117221</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="R42" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S42" t="n">
-        <v>1654.529017659944</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.350373990545</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.013826990514</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V42" t="n">
-        <v>1148.896309052513</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>963.5735547857071</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>808.7061190245871</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.2203398038079</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>742.8207098557364</v>
+        <v>2759.921372162868</v>
       </c>
       <c r="C43" t="n">
-        <v>570.2589983389613</v>
+        <v>2587.359660646092</v>
       </c>
       <c r="D43" t="n">
-        <v>404.381005540484</v>
+        <v>2421.481667847615</v>
       </c>
       <c r="E43" t="n">
-        <v>283.3068172677021</v>
+        <v>2251.723664098352</v>
       </c>
       <c r="F43" t="n">
-        <v>283.3068172677021</v>
+        <v>2075.016610060109</v>
       </c>
       <c r="G43" t="n">
-        <v>283.3068172677021</v>
+        <v>2071.845356039883</v>
       </c>
       <c r="H43" t="n">
-        <v>143.4046429580766</v>
+        <v>2071.845356039883</v>
       </c>
       <c r="I43" t="n">
-        <v>54.74469373275195</v>
+        <v>2071.845356039883</v>
       </c>
       <c r="J43" t="n">
-        <v>141.3243788974418</v>
+        <v>2158.425041204573</v>
       </c>
       <c r="K43" t="n">
-        <v>416.0828334685774</v>
+        <v>2433.183495775709</v>
       </c>
       <c r="L43" t="n">
-        <v>834.2927152365385</v>
+        <v>2851.393377543669</v>
       </c>
       <c r="M43" t="n">
-        <v>1293.776582417452</v>
+        <v>3310.877244724582</v>
       </c>
       <c r="N43" t="n">
-        <v>1736.035385575096</v>
+        <v>3753.136047882227</v>
       </c>
       <c r="O43" t="n">
-        <v>2155.704634800878</v>
+        <v>4172.805297108008</v>
       </c>
       <c r="P43" t="n">
-        <v>2503.211528771219</v>
+        <v>4520.31219107835</v>
       </c>
       <c r="Q43" t="n">
-        <v>2671.404303635552</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R43" t="n">
-        <v>2649.986482340924</v>
+        <v>4667.087144648054</v>
       </c>
       <c r="S43" t="n">
-        <v>2490.74511363892</v>
+        <v>4507.845775946051</v>
       </c>
       <c r="T43" t="n">
-        <v>2244.865667217376</v>
+        <v>4261.966329524506</v>
       </c>
       <c r="U43" t="n">
-        <v>1966.432666470481</v>
+        <v>3983.533328777612</v>
       </c>
       <c r="V43" t="n">
-        <v>1679.477158340911</v>
+        <v>3696.577820648042</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.450753927203</v>
+        <v>3424.551416234334</v>
       </c>
       <c r="X43" t="n">
-        <v>1162.058999260615</v>
+        <v>3179.159661567746</v>
       </c>
       <c r="Y43" t="n">
-        <v>934.6393285747235</v>
+        <v>2951.739990881855</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1913.236768627942</v>
+        <v>2447.237176554637</v>
       </c>
       <c r="C44" t="n">
-        <v>1475.094295811365</v>
+        <v>2009.094703738061</v>
       </c>
       <c r="D44" t="n">
-        <v>1039.18451098581</v>
+        <v>1573.184918912505</v>
       </c>
       <c r="E44" t="n">
-        <v>605.4097661441047</v>
+        <v>1139.4101740708</v>
       </c>
       <c r="F44" t="n">
-        <v>177.5423365533124</v>
+        <v>711.542744480008</v>
       </c>
       <c r="G44" t="n">
-        <v>177.5423365533124</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>55.16148310561195</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I44" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J44" t="n">
-        <v>54.74469373275195</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>704.837931809182</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>1382.303516751987</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M44" t="n">
-        <v>2059.769101694793</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N44" t="n">
-        <v>2737.234686637598</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O44" t="n">
-        <v>2737.234686637598</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P44" t="n">
-        <v>2737.234686637598</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q44" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R44" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S44" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T44" t="n">
-        <v>2737.234686637598</v>
+        <v>4468.437738815721</v>
       </c>
       <c r="U44" t="n">
-        <v>2737.234686637598</v>
+        <v>4468.437738815721</v>
       </c>
       <c r="V44" t="n">
-        <v>2737.234686637598</v>
+        <v>4105.820788749547</v>
       </c>
       <c r="W44" t="n">
-        <v>2332.379232048631</v>
+        <v>3700.965334160581</v>
       </c>
       <c r="X44" t="n">
-        <v>1913.236768627942</v>
+        <v>3281.822870739892</v>
       </c>
       <c r="Y44" t="n">
-        <v>1913.236768627942</v>
+        <v>2873.536747039545</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>560.9164387240447</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C45" t="n">
-        <v>454.459977560687</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D45" t="n">
-        <v>359.3696887072403</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>265.249274034194</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>181.8654356503556</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>96.48034591653948</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I45" t="n">
-        <v>80.80836689320955</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>405.3666918594219</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>1600.811677117221</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S45" t="n">
-        <v>1654.529017659944</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T45" t="n">
-        <v>1524.350373990545</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1348.013826990514</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V45" t="n">
-        <v>1148.896309052513</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>963.5735547857071</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>808.7061190245871</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y45" t="n">
-        <v>682.2203398038079</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>764.2385311503645</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C46" t="n">
-        <v>591.6768196335894</v>
+        <v>771.7044248790097</v>
       </c>
       <c r="D46" t="n">
-        <v>425.7988268351121</v>
+        <v>605.8264320805324</v>
       </c>
       <c r="E46" t="n">
-        <v>256.0408230858494</v>
+        <v>436.0684283312697</v>
       </c>
       <c r="F46" t="n">
-        <v>79.33376904760556</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G46" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H46" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I46" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J46" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>416.0828334685774</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>834.2927152365385</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S46" t="n">
-        <v>2512.162934933549</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T46" t="n">
-        <v>2266.283488512004</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U46" t="n">
-        <v>1987.850487765109</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V46" t="n">
-        <v>1700.894979635539</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W46" t="n">
-        <v>1428.868575221831</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X46" t="n">
-        <v>1183.476820555243</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y46" t="n">
-        <v>956.0571498693516</v>
+        <v>973.664734160825</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>640.544895229762</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>178.4356412673392</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8061,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>345.0097498941941</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>331.1742018278667</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P3" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,22 +8218,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L5" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M5" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>88.52591951400973</v>
       </c>
       <c r="P5" t="n">
-        <v>104.640860725086</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>466.3240083888434</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>684.3086716593996</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>684.3086716593994</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P8" t="n">
-        <v>178.4356412673392</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,22 +8528,22 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>200.3264657984391</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593996</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>193.0664782816748</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8687,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>104.6408607250861</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>684.3086716593995</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,13 +8704,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>684.3086716593995</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>446.0407874304756</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8766,13 +8768,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>121.6938514522378</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8930,22 +8932,22 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>684.3086716593995</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>684.3086716593996</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>684.3086716593994</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>656.6598364408383</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>412.7133402935096</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9000,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>166.7395356953541</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9012,10 +9014,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="N15" t="n">
-        <v>684.3086716593995</v>
+        <v>507.9139216242374</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>379.5169886652535</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9407,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9474,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>508.6956131767474</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,7 +10430,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10592,19 +10594,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>216.3468123274661</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10823,10 +10825,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10838,13 +10840,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>684.3086716593995</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>656.6598364408383</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11133,22 +11135,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>507.9139216242374</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>656.6598364408385</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>684.3086716593995</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23255,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>329.0704884999266</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>287.1284299078392</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23311,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>208.2197249473423</v>
+        <v>120.4463752142712</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23498,13 +23500,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>125.6469905667128</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>176.4683648140552</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23701,13 +23703,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>120.4463752142712</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23902,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>120.4463752142716</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24175,13 +24177,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U22" t="n">
-        <v>122.4480280049973</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>135.3636110865066</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>229.4233680290237</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24613,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>139.592177662725</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>141.6500182959535</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>117.7661826744373</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25123,10 +25125,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>96.56253959275548</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25321,10 +25323,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
         <v>160.795820744408</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>160.7958207444068</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>229.4233680290254</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25634,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>131.3726471839294</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,19 +25681,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>110.7913121651032</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25792,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>48.19697732171605</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7958207444072</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25877,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>72.4404088437733</v>
       </c>
       <c r="H44" t="n">
-        <v>165.0818080979925</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25916,13 +25918,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>160.7958207444075</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26035,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>139.5921776627255</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>669122.0542314842</v>
+        <v>668328.0999152777</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>669122.0542314842</v>
+        <v>668328.0999152777</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>669122.0542314842</v>
+        <v>668328.0999152777</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>447438.4012115126</v>
+        <v>643797.6601076839</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>447438.4012115126</v>
+        <v>643797.6601076839</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>686519.4608362153</v>
+        <v>686519.4608362154</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>686519.4608362155</v>
+        <v>686519.4608362154</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>447438.4012115126</v>
+        <v>643797.6601076841</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>447438.4012115125</v>
+        <v>643797.660107684</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>321688.391934245</v>
+      </c>
+      <c r="C2" t="n">
         <v>321688.3919342451</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>321688.391934245</v>
       </c>
-      <c r="D2" t="n">
-        <v>321688.3919342451</v>
-      </c>
       <c r="E2" t="n">
-        <v>206027.3555759991</v>
+        <v>296442.8825931295</v>
       </c>
       <c r="F2" t="n">
-        <v>206027.355575999</v>
+        <v>296442.8825931294</v>
       </c>
       <c r="G2" t="n">
-        <v>316114.5504824114</v>
+        <v>316114.5504824113</v>
       </c>
       <c r="H2" t="n">
-        <v>316114.5504824114</v>
+        <v>316114.5504824113</v>
       </c>
       <c r="I2" t="n">
         <v>316114.5504824113</v>
@@ -26350,10 +26352,10 @@
         <v>316114.5504824113</v>
       </c>
       <c r="O2" t="n">
-        <v>206027.355575999</v>
+        <v>296442.8825931295</v>
       </c>
       <c r="P2" t="n">
-        <v>206027.355575999</v>
+        <v>296442.8825931294</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229327.5749725129</v>
+        <v>223699.6985840449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>150665.7535717478</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>162793.2877984415</v>
+        <v>29089.80917260791</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>179045.2580876519</v>
+        <v>174651.3487177062</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>125751.0883356906</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163104.0151867248</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="C4" t="n">
-        <v>163104.0151867248</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="D4" t="n">
-        <v>163104.0151867248</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>53078.16272108945</v>
+        <v>76371.62315556087</v>
       </c>
       <c r="F4" t="n">
-        <v>53078.16272108945</v>
+        <v>76371.62315556085</v>
       </c>
       <c r="G4" t="n">
         <v>81439.57146904284</v>
       </c>
       <c r="H4" t="n">
-        <v>81439.57146904286</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="I4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="J4" t="n">
+        <v>81439.57146904281</v>
+      </c>
+      <c r="K4" t="n">
         <v>81439.57146904283</v>
-      </c>
-      <c r="K4" t="n">
-        <v>81439.57146904284</v>
       </c>
       <c r="L4" t="n">
         <v>81439.57146904283</v>
@@ -26454,10 +26456,10 @@
         <v>81439.57146904283</v>
       </c>
       <c r="O4" t="n">
-        <v>53078.16272108945</v>
+        <v>76371.62315556087</v>
       </c>
       <c r="P4" t="n">
-        <v>53078.16272108945</v>
+        <v>76371.62315556087</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="D5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="E5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="F5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="P5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.27548232877</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-145976.7654618841</v>
+        <v>-141486.919471116</v>
       </c>
       <c r="C6" t="n">
-        <v>83350.80951062869</v>
+        <v>82212.77911292895</v>
       </c>
       <c r="D6" t="n">
-        <v>83350.80951062875</v>
+        <v>82212.7791129289</v>
       </c>
       <c r="E6" t="n">
-        <v>111343.2256180182</v>
+        <v>-1859.769616507911</v>
       </c>
       <c r="F6" t="n">
-        <v>111343.2256180181</v>
+        <v>148805.9839552398</v>
       </c>
       <c r="G6" t="n">
-        <v>-5836.547390865409</v>
+        <v>127866.9312349681</v>
       </c>
       <c r="H6" t="n">
         <v>156956.740407576</v>
@@ -26543,25 +26545,25 @@
         <v>156956.740407576</v>
       </c>
       <c r="J6" t="n">
-        <v>-22088.51768007592</v>
+        <v>-17694.60831013013</v>
       </c>
       <c r="K6" t="n">
+        <v>156956.7404075759</v>
+      </c>
+      <c r="L6" t="n">
         <v>156956.740407576</v>
       </c>
-      <c r="L6" t="n">
-        <v>156956.7404075759</v>
-      </c>
       <c r="M6" t="n">
-        <v>156956.740407576</v>
+        <v>31205.65207188547</v>
       </c>
       <c r="N6" t="n">
         <v>156956.740407576</v>
       </c>
       <c r="O6" t="n">
-        <v>111343.225618018</v>
+        <v>148805.9839552398</v>
       </c>
       <c r="P6" t="n">
-        <v>111343.2256180181</v>
+        <v>148805.9839552398</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="D4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="E4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>504.6110348778134</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>593.9518317253459</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.6110348778132</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.6110348778134</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>593.9518317253459</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>202.7359338477089</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>44.3388845349175</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>161.9268490649754</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27597,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>96.5625395927548</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27619,13 +27621,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>328.8330305885843</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27634,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27679,10 +27681,10 @@
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>264.0735728956901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27837,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>161.9268490649755</v>
       </c>
       <c r="Y7" t="n">
-        <v>122.9308428424044</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27859,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27912,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>229.5149405222777</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.5367257067387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28020,10 +28022,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>160.7958207444073</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -34696,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>640.544895229762</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>178.4356412673392</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34781,7 +34783,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>345.0097498941941</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,16 +34792,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>331.1742018278667</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P3" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34869,13 +34871,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L5" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M5" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>88.52591951400973</v>
       </c>
       <c r="P5" t="n">
-        <v>104.640860725086</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35009,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35027,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>466.3240083888434</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35170,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>684.3086716593996</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>684.3086716593994</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P8" t="n">
-        <v>178.4356412673392</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,22 +35248,22 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>200.3264657984391</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593996</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>193.0664782816748</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35407,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>104.6408607250861</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>684.3086716593995</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,13 +35424,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>684.3086716593995</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>446.0407874304756</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35504,10 +35506,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>121.6938514522378</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35650,22 +35652,22 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>684.3086716593995</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>684.3086716593996</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>684.3086716593994</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>656.6598364408383</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>412.7133402935096</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35720,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>166.7395356953541</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35732,10 +35734,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="N15" t="n">
-        <v>684.3086716593995</v>
+        <v>507.9139216242374</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35747,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35963,7 +35965,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>379.5169886652535</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,10 +35980,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36127,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36212,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36455,7 +36457,7 @@
         <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>508.6956131767474</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>170.862691669754</v>
@@ -36750,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36765,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37163,7 +37165,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37312,19 +37314,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>216.3468123274661</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>170.862691669754</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37543,10 +37545,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37558,13 +37560,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>684.3086716593995</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>656.6598364408383</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37853,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>507.9139216242374</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37877,10 +37879,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960968</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>656.6598364408385</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>684.3086716593995</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38172,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>631032.6687268706</v>
+        <v>630426.5810979734</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16659530.99074006</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797167</v>
+        <v>606553.2040797155</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7760980.247796185</v>
+        <v>7760980.247796187</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>387.2118024423824</v>
+        <v>359.4361022422145</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.9735834668218</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -879,13 +879,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>125.1716544454842</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>275.3369893357821</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>102.7176563887156</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1068,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>81.01098805494614</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>129.475840043234</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>42.56716559683496</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1305,10 +1305,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>3.139541480022953</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>101.7706336613758</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>10.15073120213241</v>
       </c>
       <c r="C11" t="n">
-        <v>104.6905595884843</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1542,10 +1542,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170478</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>155.2022955251545</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1624,7 +1624,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>92.21956428897897</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1675,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>292.9993288191102</v>
       </c>
     </row>
     <row r="15">
@@ -1767,7 +1767,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1776,16 +1776,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>97.2069074219896</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2067,7 +2067,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>131.5141848153389</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2149,7 +2149,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633446</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2256,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>29.10461178738926</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2484,7 +2484,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2526,10 +2526,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>13.99728392830552</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2538,7 +2538,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>50.29424103733289</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2730,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>20.73696989209183</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>101.7706336613758</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2775,7 +2775,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3012,10 +3012,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>125.1716544454844</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3204,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>48.28314334362825</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>3.139541480022602</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3483,10 +3483,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>187.5234134555184</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3678,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>85.55329631630661</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3720,7 +3720,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>54.66258501924847</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>419.2590575734532</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3754,13 +3754,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>145.83876749105</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3912,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>3.139541480023404</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3979,7 +3979,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>21.87520451048465</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3991,7 +3991,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>324.9434442191954</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4137,7 +4137,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>10.04027365719982</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4152,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>31.24391673888145</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>532.1876844265735</v>
+        <v>1601.759173608573</v>
       </c>
       <c r="C2" t="n">
-        <v>498.0856156504008</v>
+        <v>1567.6571048324</v>
       </c>
       <c r="D2" t="n">
-        <v>106.9625828803175</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="E2" t="n">
-        <v>77.22824207901678</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F2" t="n">
-        <v>53.40121652862857</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862857</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>687.5406628060929</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>1348.380717347871</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>1348.380717347871</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>1348.380717347871</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
-        <v>2009.22077188965</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4360,22 +4360,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2449.993599304467</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2190.771296621484</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V2" t="n">
-        <v>2190.771296621484</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W2" t="n">
-        <v>1785.915842032517</v>
+        <v>2047.406523133708</v>
       </c>
       <c r="X2" t="n">
-        <v>1366.773378611828</v>
+        <v>2032.304463753423</v>
       </c>
       <c r="Y2" t="n">
-        <v>958.4872549114813</v>
+        <v>2028.058744093481</v>
       </c>
     </row>
     <row r="3">
@@ -4403,34 +4403,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>394.9608689238807</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>394.9608689238807</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>394.9608689238807</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>1055.800923465659</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
         <v>1716.640978007438</v>
@@ -4485,7 +4485,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4500,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4515,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434797</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013252</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
         <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136788</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y4" t="n">
-        <v>1160.715522056492</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1052.900668210748</v>
+        <v>576.9744364820456</v>
       </c>
       <c r="C5" t="n">
-        <v>614.7581953941717</v>
+        <v>542.872367705873</v>
       </c>
       <c r="D5" t="n">
         <v>511.0029869207216</v>
       </c>
       <c r="E5" t="n">
-        <v>77.22824207901678</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>714.241271070407</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L5" t="n">
-        <v>1375.081325612186</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M5" t="n">
-        <v>1375.081325612186</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N5" t="n">
-        <v>1375.081325612186</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O5" t="n">
-        <v>1462.721985931055</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P5" t="n">
-        <v>2123.562040472834</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q5" t="n">
         <v>2670.060826431428</v>
@@ -4597,22 +4597,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V5" t="n">
-        <v>2307.443876365255</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="W5" t="n">
-        <v>2306.628825816692</v>
+        <v>1682.521194649326</v>
       </c>
       <c r="X5" t="n">
-        <v>1887.486362396003</v>
+        <v>1263.378731228637</v>
       </c>
       <c r="Y5" t="n">
-        <v>1479.200238695656</v>
+        <v>855.0926075282902</v>
       </c>
     </row>
     <row r="6">
@@ -4640,34 +4640,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>515.0619848335834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
         <v>1716.640978007438</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4767,10 +4767,10 @@
         <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1324.277995859497</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>981.0148405224497</v>
+        <v>1270.144995079233</v>
       </c>
       <c r="C8" t="n">
-        <v>542.8723677058731</v>
+        <v>1236.042926303061</v>
       </c>
       <c r="D8" t="n">
-        <v>106.9625828803175</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="E8" t="n">
-        <v>77.22824207901678</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862857</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862857</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>141.0418768474983</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>801.8819313892767</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>801.8819313892767</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>801.8819313892767</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1462.721985931055</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>2123.562040472834</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
         <v>2670.060826431428</v>
@@ -4834,22 +4834,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2366.341725488304</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2366.341725488304</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2235.558048676956</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1830.70259408799</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>1815.600534707704</v>
+        <v>1296.64988118368</v>
       </c>
       <c r="Y8" t="n">
-        <v>1407.314411007358</v>
+        <v>1292.404161523737</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>277.7880908295409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>938.6281453713193</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1599.468199913098</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1599.468199913098</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516127</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C10" t="n">
-        <v>568.9155211348376</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D10" t="n">
-        <v>403.0375283363603</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>233.2795245870976</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>56.57247054885377</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>53.40121652862857</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4989,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2188.014873871654</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C11" t="n">
         <v>2082.266833883286</v>
@@ -5035,10 +5035,10 @@
         <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>94.18688869171365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I11" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
         <v>529.0247867717716</v>
@@ -5047,46 +5047,46 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>2438.435044982809</v>
+        <v>1987.494405187086</v>
       </c>
       <c r="M11" t="n">
-        <v>2438.435044982809</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="N11" t="n">
-        <v>2438.435044982809</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="O11" t="n">
-        <v>3418.614711553115</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P11" t="n">
-        <v>4246.924586386512</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q11" t="n">
-        <v>4688.504965942682</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R11" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>4688.504965942682</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T11" t="n">
-        <v>4468.437738815721</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U11" t="n">
-        <v>4209.215436132738</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V11" t="n">
-        <v>3846.598486066564</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W11" t="n">
-        <v>3441.743031477597</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X11" t="n">
-        <v>3022.600568056908</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y11" t="n">
-        <v>2614.314444356562</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
         <v>398.395094293342</v>
@@ -5114,46 +5114,46 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>93.77009931885365</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L12" t="n">
-        <v>937.2866943184644</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M12" t="n">
-        <v>937.2866943184644</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N12" t="n">
-        <v>937.2866943184644</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O12" t="n">
-        <v>937.2866943184644</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P12" t="n">
-        <v>1757.009860797662</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
-        <v>1757.009860797662</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
         <v>1187.921714638615</v>
@@ -5162,10 +5162,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1084.16831070541</v>
+        <v>803.2639367364659</v>
       </c>
       <c r="C13" t="n">
-        <v>911.6065991886352</v>
+        <v>630.7022252196908</v>
       </c>
       <c r="D13" t="n">
-        <v>745.7286063901579</v>
+        <v>464.8242324212135</v>
       </c>
       <c r="E13" t="n">
-        <v>575.9706026408952</v>
+        <v>295.0662286719508</v>
       </c>
       <c r="F13" t="n">
-        <v>399.2635486026514</v>
+        <v>118.359174633707</v>
       </c>
       <c r="G13" t="n">
-        <v>233.6722736284791</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H13" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I13" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J13" t="n">
         <v>180.3497844835435</v>
@@ -5226,25 +5226,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2710.429709221653</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T13" t="n">
-        <v>2464.550262800109</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U13" t="n">
-        <v>2307.780267320155</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V13" t="n">
-        <v>2020.824759190585</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W13" t="n">
-        <v>1748.798354776877</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X13" t="n">
-        <v>1503.406600110289</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y13" t="n">
-        <v>1275.986929424397</v>
+        <v>995.0825554554531</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2231.279152143079</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C14" t="n">
-        <v>1793.136679326502</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D14" t="n">
-        <v>1357.226894500947</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E14" t="n">
-        <v>923.452149659242</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F14" t="n">
-        <v>495.5847200684498</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G14" t="n">
-        <v>94.18688869171365</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H14" t="n">
-        <v>94.18688869171365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I14" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>93.77009931885365</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>93.77009931885365</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>1168.830065571713</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M14" t="n">
-        <v>2325.877900782264</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N14" t="n">
-        <v>3451.608884218711</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O14" t="n">
-        <v>3451.608884218711</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P14" t="n">
-        <v>4279.918759052108</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q14" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R14" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>4604.853092126519</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T14" t="n">
-        <v>4511.702017087146</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="U14" t="n">
-        <v>4252.479714404163</v>
+        <v>4429.282663259701</v>
       </c>
       <c r="V14" t="n">
-        <v>3889.86276433799</v>
+        <v>4066.665713193527</v>
       </c>
       <c r="W14" t="n">
-        <v>3485.007309749023</v>
+        <v>3661.810258604561</v>
       </c>
       <c r="X14" t="n">
-        <v>3065.864846328333</v>
+        <v>3242.667795183871</v>
       </c>
       <c r="Y14" t="n">
-        <v>2657.578722627987</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
         <v>398.395094293342</v>
@@ -5351,46 +5351,46 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>93.77009931885365</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>93.77009931885365</v>
+        <v>1125.125617515901</v>
       </c>
       <c r="L15" t="n">
-        <v>93.77009931885365</v>
+        <v>1125.125617515901</v>
       </c>
       <c r="M15" t="n">
-        <v>1254.175078389668</v>
+        <v>1125.125617515901</v>
       </c>
       <c r="N15" t="n">
-        <v>1757.009860797662</v>
+        <v>1125.125617515901</v>
       </c>
       <c r="O15" t="n">
-        <v>1757.009860797662</v>
+        <v>1125.125617515901</v>
       </c>
       <c r="P15" t="n">
-        <v>1757.009860797662</v>
+        <v>1125.125617515901</v>
       </c>
       <c r="Q15" t="n">
-        <v>1757.009860797662</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
         <v>1187.921714638615</v>
@@ -5399,10 +5399,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>944.2661363957848</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C16" t="n">
-        <v>771.7044248790097</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="D16" t="n">
-        <v>605.8264320805324</v>
+        <v>615.9681226433605</v>
       </c>
       <c r="E16" t="n">
-        <v>436.0684283312697</v>
+        <v>446.2101188940978</v>
       </c>
       <c r="F16" t="n">
-        <v>259.361374293026</v>
+        <v>446.2101188940978</v>
       </c>
       <c r="G16" t="n">
-        <v>93.77009931885365</v>
+        <v>280.6188439199254</v>
       </c>
       <c r="H16" t="n">
-        <v>93.77009931885365</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I16" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J16" t="n">
         <v>180.3497844835435</v>
@@ -5460,28 +5460,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2710.429709221653</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2692.190540178969</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.311093757424</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U16" t="n">
-        <v>2167.878093010529</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V16" t="n">
-        <v>1880.92258488096</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W16" t="n">
-        <v>1608.896180467251</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X16" t="n">
-        <v>1363.504425800664</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y16" t="n">
-        <v>1136.084755114772</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="17">
@@ -5597,19 +5597,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>282.1391483292483</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>105.4320942910045</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5706,19 +5706,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1733.399901212125</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="20">
@@ -5764,40 +5764,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>982.1554751127505</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>809.5937635959755</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>643.7157707974982</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>473.9577670482354</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>297.2507130099916</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>131.6594380358193</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2683.3639582443</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2404.930957497405</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W24" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3575.440564248063</v>
+        <v>1011.560997133398</v>
       </c>
       <c r="C25" t="n">
-        <v>3402.878852731288</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D25" t="n">
-        <v>3237.000859932811</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E25" t="n">
-        <v>3067.242856183548</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>2890.535802145304</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>2724.944527171132</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>2585.042352861507</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5091.624192244353</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>5091.624192244353</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>5077.485521609701</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>4799.052520862807</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>4512.097012733238</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>4240.070608319529</v>
+        <v>1676.191041204865</v>
       </c>
       <c r="X25" t="n">
-        <v>3994.678853652942</v>
+        <v>1430.799286538277</v>
       </c>
       <c r="Y25" t="n">
-        <v>3767.25918296705</v>
+        <v>1203.379615852385</v>
       </c>
     </row>
     <row r="26">
@@ -6214,64 +6214,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>605.8694973157595</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1680.929463568619</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2837.97729877917</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>3963.708282215617</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4943.887948785923</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4943.887948785923</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.659051657336</v>
+        <v>1062.363260807472</v>
       </c>
       <c r="C28" t="n">
-        <v>920.0973401405612</v>
+        <v>889.8015492906967</v>
       </c>
       <c r="D28" t="n">
-        <v>754.2193473420839</v>
+        <v>723.9235564922194</v>
       </c>
       <c r="E28" t="n">
-        <v>584.4613435928212</v>
+        <v>554.1655527429566</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>377.4584987047128</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>211.8672237305405</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2594.704009018975</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2316.271008272081</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>2029.315500142511</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1757.289095728803</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X28" t="n">
-        <v>1511.897341062215</v>
+        <v>1481.601550212351</v>
       </c>
       <c r="Y28" t="n">
-        <v>1284.477670376323</v>
+        <v>1254.181879526459</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6502,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1726.993304878938</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6739,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H34" t="n">
         <v>190.9207894961043</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2683.3639582443</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2404.930957497405</v>
+        <v>2265.02878318778</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.975449367836</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954127</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>3603.973621145286</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>4729.704604581732</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>4729.704604581732</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>282.1391483292483</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>105.4320942910045</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7162,28 +7162,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>306.120802776629</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423627</v>
@@ -7213,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>1039.174348374283</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>866.6126368575082</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>700.7346440590309</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>530.9766403097681</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>354.2695862715243</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>188.678311297352</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2451.623182457406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2173.190181710511</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1230.99296709327</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2519.992517327003</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C41" t="n">
-        <v>2081.850044510426</v>
+        <v>1680.86900250655</v>
       </c>
       <c r="D41" t="n">
-        <v>1645.940259684871</v>
+        <v>1244.959217680994</v>
       </c>
       <c r="E41" t="n">
-        <v>1212.165514843166</v>
+        <v>811.1844728392896</v>
       </c>
       <c r="F41" t="n">
-        <v>784.2980852523735</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="G41" t="n">
-        <v>382.9002538756374</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>93.77009931885365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I41" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
         <v>529.0247867717716</v>
@@ -7417,46 +7417,46 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>2333.516638580385</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M41" t="n">
-        <v>2333.516638580385</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N41" t="n">
-        <v>2333.516638580385</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O41" t="n">
-        <v>3313.696305150691</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P41" t="n">
-        <v>4142.006179984088</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q41" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R41" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>4688.504965942682</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T41" t="n">
-        <v>4688.504965942682</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U41" t="n">
-        <v>4541.193079588086</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V41" t="n">
-        <v>4178.576129521913</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W41" t="n">
-        <v>3773.720674932946</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X41" t="n">
-        <v>3354.578211512257</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y41" t="n">
-        <v>2946.29208781191</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
         <v>398.395094293342</v>
@@ -7484,46 +7484,46 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
-        <v>93.77009931885365</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>596.6048817268487</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>1757.009860797662</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>1757.009860797662</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>1757.009860797662</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>1757.009860797662</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
         <v>1187.921714638615</v>
@@ -7532,10 +7532,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2759.921372162868</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C43" t="n">
-        <v>2587.359660646092</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D43" t="n">
-        <v>2421.481667847615</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E43" t="n">
-        <v>2251.723664098352</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F43" t="n">
-        <v>2075.016610060109</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G43" t="n">
-        <v>2071.845356039883</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H43" t="n">
-        <v>2071.845356039883</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I43" t="n">
-        <v>2071.845356039883</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J43" t="n">
-        <v>2158.425041204573</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>2433.183495775709</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>2851.393377543669</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>3310.877244724582</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>3753.136047882227</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>4172.805297108008</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>4520.31219107835</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>4688.504965942682</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>4667.087144648054</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>4507.845775946051</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T43" t="n">
-        <v>4261.966329524506</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U43" t="n">
-        <v>3983.533328777612</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V43" t="n">
-        <v>3696.577820648042</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W43" t="n">
-        <v>3424.551416234334</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X43" t="n">
-        <v>3179.159661567746</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y43" t="n">
-        <v>2951.739990881855</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2447.237176554637</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C44" t="n">
-        <v>2009.094703738061</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D44" t="n">
-        <v>1573.184918912505</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E44" t="n">
-        <v>1139.4101740708</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F44" t="n">
-        <v>711.542744480008</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G44" t="n">
         <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>94.18688869171365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I44" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
         <v>529.0247867717716</v>
@@ -7663,37 +7663,37 @@
         <v>2438.435044982809</v>
       </c>
       <c r="O44" t="n">
-        <v>3313.696305150691</v>
+        <v>3418.614711553115</v>
       </c>
       <c r="P44" t="n">
-        <v>4142.006179984088</v>
+        <v>4246.924586386512</v>
       </c>
       <c r="Q44" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R44" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>4688.504965942682</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T44" t="n">
-        <v>4468.437738815721</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U44" t="n">
-        <v>4468.437738815721</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V44" t="n">
-        <v>4105.820788749547</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W44" t="n">
-        <v>3700.965334160581</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X44" t="n">
-        <v>3281.822870739892</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y44" t="n">
-        <v>2873.536747039545</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
         <v>398.395094293342</v>
@@ -7721,7 +7721,7 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
         <v>119.8337724793113</v>
@@ -7751,16 +7751,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
         <v>1187.921714638615</v>
@@ -7769,10 +7769,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>781.8461154418378</v>
+        <v>803.2639367364659</v>
       </c>
       <c r="C46" t="n">
-        <v>771.7044248790097</v>
+        <v>803.2639367364659</v>
       </c>
       <c r="D46" t="n">
-        <v>605.8264320805324</v>
+        <v>637.3859439379886</v>
       </c>
       <c r="E46" t="n">
-        <v>436.0684283312697</v>
+        <v>467.6279401887259</v>
       </c>
       <c r="F46" t="n">
-        <v>259.361374293026</v>
+        <v>290.920886150482</v>
       </c>
       <c r="G46" t="n">
-        <v>93.77009931885365</v>
+        <v>125.3296111763097</v>
       </c>
       <c r="H46" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I46" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J46" t="n">
         <v>180.3497844835435</v>
@@ -7830,28 +7830,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2529.770519225022</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T46" t="n">
-        <v>2283.891072803477</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U46" t="n">
-        <v>2005.458072056582</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V46" t="n">
-        <v>1718.502563927013</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W46" t="n">
-        <v>1446.476159513304</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X46" t="n">
-        <v>1201.084404846717</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y46" t="n">
-        <v>973.664734160825</v>
+        <v>995.0825554554531</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>640.544895229762</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>345.0097498941941</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,10 +8218,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,13 +8230,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>88.52591951400973</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>466.3240083888434</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,10 +8455,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>88.52591951400984</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>667.5152066078571</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,13 +8467,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078571</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8531,28 +8531,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>200.3264657984391</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8695,25 +8695,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>630.4235620779154</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>446.0407874304756</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>412.7133402935096</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9002,22 +9002,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>507.9139216242374</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>508.6956131767474</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10600,16 +10600,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>216.3468123274661</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11065,7 +11065,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>979.9409695458944</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11135,22 +11135,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>507.9139216242374</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11311,13 +11311,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>884.102282997861</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>446.0407874304774</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>411.8858435779263</v>
       </c>
       <c r="C11" t="n">
-        <v>329.0704884999266</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23466,13 +23466,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>120.4463752142712</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>125.6469905667128</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>111.2039336442329</v>
       </c>
     </row>
     <row r="15">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>41.29624514453963</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>111.4236523045828</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>109.39854077914</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>229.4233680290237</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>219.0118993322385</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>117.7661826744374</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>141.6500182959535</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>117.7661826744373</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>227.3655273957975</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>96.56253959275543</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>52.94985625022261</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>229.4233680290254</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>14.50199051495775</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>110.7913121651032</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.7958207444072</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>411.8858435779263</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>72.4404088437733</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>160.7958207444075</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>107.2592358276478</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>643797.6601076839</v>
+        <v>643797.6601076841</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>643797.6601076839</v>
+        <v>643797.6601076841</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>686519.4608362154</v>
+        <v>686519.4608362155</v>
       </c>
     </row>
     <row r="8">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>643797.660107684</v>
+        <v>643797.6601076841</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>321688.391934245</v>
       </c>
       <c r="C2" t="n">
+        <v>321688.391934245</v>
+      </c>
+      <c r="D2" t="n">
         <v>321688.3919342451</v>
       </c>
-      <c r="D2" t="n">
-        <v>321688.391934245</v>
-      </c>
       <c r="E2" t="n">
-        <v>296442.8825931295</v>
+        <v>296442.8825931296</v>
       </c>
       <c r="F2" t="n">
-        <v>296442.8825931294</v>
+        <v>296442.8825931296</v>
       </c>
       <c r="G2" t="n">
         <v>316114.5504824113</v>
@@ -26355,7 +26355,7 @@
         <v>296442.8825931295</v>
       </c>
       <c r="P2" t="n">
-        <v>296442.8825931294</v>
+        <v>296442.8825931296</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150665.7535717478</v>
+        <v>150665.753571748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29089.80917260791</v>
+        <v>29089.80917260779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>125751.0883356906</v>
+        <v>125751.0883356908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>76371.62315556087</v>
+        <v>76371.6231555609</v>
       </c>
       <c r="F4" t="n">
-        <v>76371.62315556085</v>
+        <v>76371.6231555609</v>
       </c>
       <c r="G4" t="n">
         <v>81439.57146904284</v>
@@ -26441,7 +26441,7 @@
         <v>81439.57146904283</v>
       </c>
       <c r="J4" t="n">
-        <v>81439.57146904281</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="K4" t="n">
         <v>81439.57146904283</v>
@@ -26456,10 +26456,10 @@
         <v>81439.57146904283</v>
       </c>
       <c r="O4" t="n">
-        <v>76371.62315556087</v>
+        <v>76371.6231555609</v>
       </c>
       <c r="P4" t="n">
-        <v>76371.62315556087</v>
+        <v>76371.6231555609</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="F5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26502,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="P5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-141486.919471116</v>
       </c>
       <c r="C6" t="n">
-        <v>82212.77911292895</v>
+        <v>82212.77911292882</v>
       </c>
       <c r="D6" t="n">
-        <v>82212.7791129289</v>
+        <v>82212.77911292894</v>
       </c>
       <c r="E6" t="n">
-        <v>-1859.769616507911</v>
+        <v>-1964.959238762733</v>
       </c>
       <c r="F6" t="n">
-        <v>148805.9839552398</v>
+        <v>148700.7943329852</v>
       </c>
       <c r="G6" t="n">
-        <v>127866.9312349681</v>
+        <v>127843.7068955856</v>
       </c>
       <c r="H6" t="n">
-        <v>156956.740407576</v>
+        <v>156933.5160681933</v>
       </c>
       <c r="I6" t="n">
-        <v>156956.740407576</v>
+        <v>156933.5160681933</v>
       </c>
       <c r="J6" t="n">
-        <v>-17694.60831013013</v>
+        <v>-17717.83264951277</v>
       </c>
       <c r="K6" t="n">
-        <v>156956.7404075759</v>
+        <v>156933.5160681933</v>
       </c>
       <c r="L6" t="n">
-        <v>156956.740407576</v>
+        <v>156933.5160681933</v>
       </c>
       <c r="M6" t="n">
-        <v>31205.65207188547</v>
+        <v>31182.42773250251</v>
       </c>
       <c r="N6" t="n">
-        <v>156956.740407576</v>
+        <v>156933.5160681933</v>
       </c>
       <c r="O6" t="n">
-        <v>148805.9839552398</v>
+        <v>148700.7943329852</v>
       </c>
       <c r="P6" t="n">
-        <v>148805.9839552398</v>
+        <v>148700.7943329852</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1172.126241485671</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.6110348778134</v>
+        <v>504.611034877814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>106.1342618990748</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778132</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778134</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>106.1342618990748</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>44.3388845349175</v>
+        <v>72.11458473508543</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161.9268490649754</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>144.1344859240872</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>146.6995854442766</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>328.8330305885843</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27669,7 +27669,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>84.63380825304846</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>161.9268490649755</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27909,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>229.5149405222777</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
+        <v>372.3838731896474</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>141.6500182959535</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>640.544895229762</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>345.0097498941941</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,16 +34792,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34865,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,10 +34938,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,13 +34950,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>88.52591951400973</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35029,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>466.3240083888434</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,10 +35175,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>88.52591951400984</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>667.5152066078571</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,13 +35187,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078571</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35248,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>200.3264657984391</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35415,25 +35415,25 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>630.4235620779154</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>446.0407874304756</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>412.7133402935096</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>507.9139216242374</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35746,10 +35746,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35965,7 +35965,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35980,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36132,7 +36132,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36454,10 +36454,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36530,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>508.6956131767474</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
         <v>170.862691669754</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37320,16 +37320,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>216.3468123274661</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37785,7 +37785,7 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>979.9409695458944</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>507.9139216242374</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37879,10 +37879,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960968</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37952,13 +37952,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38031,13 +38031,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>884.102282997861</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>446.0407874304774</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
